--- a/ITBA27_1term.xlsx
+++ b/ITBA27_1term.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim_bzz/Documents/KSE/SecretProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F637197-DD0E-A743-8DAE-88593AC13906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0312D2EE-EACE-B145-92C8-0D95C175D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="20120" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2215,10 +2215,10 @@
   <dimension ref="A1:AA993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13054,6 +13054,8 @@
       <c r="D286" s="20" t="s">
         <v>492</v>
       </c>
+      <c r="E286" s="22"/>
+      <c r="F286" s="22"/>
       <c r="H286" s="20" t="s">
         <v>493</v>
       </c>
@@ -13089,6 +13091,8 @@
       <c r="D287" s="20" t="s">
         <v>492</v>
       </c>
+      <c r="E287" s="22"/>
+      <c r="F287" s="22"/>
       <c r="H287" s="20" t="s">
         <v>493</v>
       </c>
@@ -13124,6 +13128,8 @@
       <c r="D288" s="20" t="s">
         <v>492</v>
       </c>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
       <c r="H288" s="20" t="s">
         <v>493</v>
       </c>
@@ -13159,6 +13165,8 @@
       <c r="D289" s="20" t="s">
         <v>492</v>
       </c>
+      <c r="E289" s="22"/>
+      <c r="F289" s="22"/>
       <c r="H289" s="20" t="s">
         <v>502</v>
       </c>
